--- a/thresholds/IGCSE/drama/drama-thresholds.xlsx
+++ b/thresholds/IGCSE/drama/drama-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,48 +616,48 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -698,7 +698,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -739,48 +739,48 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>200</v>
       </c>
       <c r="C8" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D8" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F8" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H8" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I8" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,7 +821,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -862,7 +862,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BY (BY1) 12,82</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -903,36 +903,36 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BY (BY2) 12,92</t>
+          <t>BY (BY1) 12,82</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>200</v>
       </c>
       <c r="C12" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E12" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I12" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -944,48 +944,48 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY (BY2) 12,92</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>200</v>
       </c>
       <c r="C13" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1026,7 +1026,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1067,89 +1067,89 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>200</v>
       </c>
       <c r="C16" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="D17" t="n">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="H17" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I17" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1190,7 +1190,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82/92</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1231,20 +1231,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AU 02,14</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>200</v>
       </c>
       <c r="C20" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D20" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E20" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
         <v>110</v>
@@ -1265,24 +1265,24 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>BY 12,82/92</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>200</v>
       </c>
       <c r="C21" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D21" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E21" t="n">
         <v>129</v>
@@ -1294,55 +1294,55 @@
         <v>91</v>
       </c>
       <c r="H21" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I21" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AU 02,14</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>200</v>
       </c>
       <c r="C22" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D22" t="n">
         <v>147</v>
       </c>
       <c r="E22" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1354,26 +1354,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>200</v>
       </c>
       <c r="C23" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="n">
         <v>147</v>
       </c>
       <c r="E23" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G23" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="n">
         <v>71</v>
@@ -1395,20 +1395,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AX 02,11</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>200</v>
       </c>
       <c r="C24" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="n">
         <v>111</v>
@@ -1429,55 +1429,55 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AY 02,12</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>200</v>
       </c>
       <c r="C25" t="n">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D25" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G25" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AZ 02,13</t>
+          <t>AX 02,11</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,7 +1518,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BZ (BZ1) 13,82</t>
+          <t>AY 02,12</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1559,7 +1559,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>BZ (BZ2) 13,92</t>
+          <t>AZ 02,13</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1592,6 +1592,88 @@
         </is>
       </c>
       <c r="K28" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>BZ (BZ1) 13,82</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" t="n">
+        <v>170</v>
+      </c>
+      <c r="D29" t="n">
+        <v>150</v>
+      </c>
+      <c r="E29" t="n">
+        <v>130</v>
+      </c>
+      <c r="F29" t="n">
+        <v>111</v>
+      </c>
+      <c r="G29" t="n">
+        <v>91</v>
+      </c>
+      <c r="H29" t="n">
+        <v>72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>53</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>BZ (BZ2) 13,92</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>200</v>
+      </c>
+      <c r="C30" t="n">
+        <v>170</v>
+      </c>
+      <c r="D30" t="n">
+        <v>150</v>
+      </c>
+      <c r="E30" t="n">
+        <v>130</v>
+      </c>
+      <c r="F30" t="n">
+        <v>111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>91</v>
+      </c>
+      <c r="H30" t="n">
+        <v>72</v>
+      </c>
+      <c r="I30" t="n">
+        <v>53</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
